--- a/bank statement generator/bank_statements/statement_109.xlsx
+++ b/bank statement generator/bank_statements/statement_109.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 24.05.2025</t>
+          <t>KONTOSTAND AM 18.07.2025</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,96 +759,112 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>28.05.</t>
+          <t>20.07.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>29.05.</t>
+          <t>21.07.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./28.05 ALDI SUED RO</t>
+          <t>KARTENZ./20.07 EDEKA RO</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>97,08-</t>
+          <t>75,63-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>01.06.</t>
+          <t>22.07.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>02.06.</t>
+          <t>23.07.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>MCDONALDS Wurzen</t>
+          <t>BEITRAG Allianz SE K-42224637</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>21,59-</t>
+          <t>53,65-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>03.06.</t>
+          <t>23.07.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>04.06.</t>
+          <t>24.07.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 49644414</t>
+          <t>EBAY MKTPLC EU HWDMKS</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>84,76-</t>
+          <t>178,36-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>04.06.</t>
+          <t>24.07.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>05.06.</t>
+          <t>25.07.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 89206057</t>
+          <t>BURGER KING Badoberan</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>38,40-</t>
+          <t>15,76-</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="12" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>27.07.</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>28.07.</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+        </is>
+      </c>
+      <c r="E10" s="17" t="inlineStr">
+        <is>
+          <t>24,85-</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="8" t="n"/>
@@ -861,12 +877,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 08.06.2025</t>
+          <t>KONTOSTAND AM 31.07.2025</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>241,83-</t>
+          <t>348,25-</t>
         </is>
       </c>
     </row>
@@ -874,7 +890,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 13.06.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 06.08.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
